--- a/medicine/Enfance/Toboclic/Toboclic.xlsx
+++ b/medicine/Enfance/Toboclic/Toboclic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Toboclic était un magazine interactif français pour enfants sur CD-ROM, édité par Milan Presse, filiale du groupe Bayard Presse. Il fut créé en octobre 2000, et sa publication cessa en août 2015[1]. Il laisse la place à Tobo 3-6 qui disparait 9 mois après en mai 2016.
+Toboclic était un magazine interactif français pour enfants sur CD-ROM, édité par Milan Presse, filiale du groupe Bayard Presse. Il fut créé en octobre 2000, et sa publication cessa en août 2015. Il laisse la place à Tobo 3-6 qui disparait 9 mois après en mai 2016.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnages Bizou, Bétiz, Zéphir, Zoreil et Zaza ont été créés par FINZO, à la création. Plus tard, c'est Philippe Jalbert qui crée Souriz. Ce dernier faisait les illustrations mettant en scène les mascottes. Mathieu Maillefer faisait l'animation.
 Chaque CD débutait par la chanson des mascottes qui se nommait Toboska. Des versions clip était également disponibles dans la chambre de la mascotte Souriz. Le sommaire animé apparaissait ensuite avec une scène différente à chaque CD, où les personnages proposaient de cliquer sur eux pour participer leurs activités.  
@@ -546,18 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bétiz
-Bétiz est un diablotin orange. Il anime la rubrique "jeux".
-Bizou
-Bizou est un ours en peluche bleu. Il anime le récit interactif. Quand le joueur clique sur quitter Toboclic, une porte s'affiche, avec lui à coté qui demande si on veut réellement quitter.
-Zaza
-Zaza est une poule blanche. Elle anime généralement une activité créative, mais dans certains numéros une rubrique particulière comme les langues, l'atelier d'Art, le labo de Zaza, la cuisine, ou la magie.
-Zéphir
-Zéphir est un tigre orange avec des rayures violettes. Il anime la rubrique de la découverte, mais également à partir du numéro 50 (septembre 2005) présente la "drôle de bête" du mois.
-Zoreil
-Zoreil est un personnage principal de Toboclic, il est représenté par un lapin violet possédant de très grandes oreilles. Zoreil propose généralement une comptine (qui peut être enregistrée en karaoké), mais dans les numéros pairs à partir du numéro 12, il anime la Récré.
-Souriz
-Souriz est une souris verte. Apparue dans le numéro 15, elle présente la rubrique "Mystères et boules de gommes" qui répond aux questions des abonnés, et qui devient à partir du numéro 50 le Club des Tobocliqueurs en accueillant les dessins et anniversaires de ceux-ci, dans sa chambre (Sur un simple tableau, auparavant). Souriz ne parle pas jusqu'à son entrée au générique en septembre 2009, et ce sont les autres mascottes qui répondaient aux questions.
+          <t>Bétiz</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bétiz est un diablotin orange. Il anime la rubrique "jeux".
 </t>
         </is>
       </c>
@@ -583,10 +592,197 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mascottes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bizou</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bizou est un ours en peluche bleu. Il anime le récit interactif. Quand le joueur clique sur quitter Toboclic, une porte s'affiche, avec lui à coté qui demande si on veut réellement quitter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mascottes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Zaza</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zaza est une poule blanche. Elle anime généralement une activité créative, mais dans certains numéros une rubrique particulière comme les langues, l'atelier d'Art, le labo de Zaza, la cuisine, ou la magie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mascottes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Zéphir</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zéphir est un tigre orange avec des rayures violettes. Il anime la rubrique de la découverte, mais également à partir du numéro 50 (septembre 2005) présente la "drôle de bête" du mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mascottes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Zoreil</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zoreil est un personnage principal de Toboclic, il est représenté par un lapin violet possédant de très grandes oreilles. Zoreil propose généralement une comptine (qui peut être enregistrée en karaoké), mais dans les numéros pairs à partir du numéro 12, il anime la Récré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mascottes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Souriz</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souriz est une souris verte. Apparue dans le numéro 15, elle présente la rubrique "Mystères et boules de gommes" qui répond aux questions des abonnés, et qui devient à partir du numéro 50 le Club des Tobocliqueurs en accueillant les dessins et anniversaires de ceux-ci, dans sa chambre (Sur un simple tableau, auparavant). Souriz ne parle pas jusqu'à son entrée au générique en septembre 2009, et ce sont les autres mascottes qui répondaient aux questions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Voix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Catherine Pauwels : La présentatrice
 Julien Climent :  Bizou, Bétiz, Zéphir et Zoreil
@@ -595,31 +791,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Toboclic</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Paroles Toboska (Jusqu'à 2009)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Parole de la Toboska, chanson des mascottes de Toboclic :
 Si tu adores les histoires
@@ -662,31 +860,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Toboclic</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Paroles Toboska (À partir de 2009)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Parole de la Toboska, chanson des mascottes de Toboclic, Depuis l'entrée au générique de Souriz en 2009 :
 Si tu adores les histoires
@@ -721,31 +921,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Toboclic</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Toboclic</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Toboclic</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Le site de Toboclic</t>
         </is>
